--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2301.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2301.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.413882394202028</v>
+        <v>1.134548783302307</v>
       </c>
       <c r="B1">
-        <v>2.819309147093678</v>
+        <v>2.158451080322266</v>
       </c>
       <c r="C1">
-        <v>2.511105236966312</v>
+        <v>2.793316125869751</v>
       </c>
       <c r="D1">
-        <v>2.764787927942441</v>
+        <v>1.482792377471924</v>
       </c>
       <c r="E1">
-        <v>3.312565644239971</v>
+        <v>0.9023613333702087</v>
       </c>
     </row>
   </sheetData>
